--- a/Testcase.xlsx
+++ b/Testcase.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vidhya/Desktop/qa/equipment-status-tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E637D21-2BBC-0B4A-ABDB-30B324C84CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1170B990-9857-8047-9781-3393136F5525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{73231516-A684-7949-9A3D-9DB07B6B3CB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$47</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="237">
   <si>
     <t>ID</t>
   </si>
@@ -101,43 +104,22 @@
     <t>Accessibility</t>
   </si>
   <si>
-    <t>GET /api/equipment returns 200 &amp; array</t>
-  </si>
-  <si>
     <t>API</t>
   </si>
   <si>
     <t>1. Send GET</t>
   </si>
   <si>
-    <t>POST /api/equipment creates entity</t>
-  </si>
-  <si>
     <t>Critical</t>
   </si>
   <si>
-    <t>POST /api/equipment/{{id}}/status updates</t>
-  </si>
-  <si>
     <t>Existing id</t>
   </si>
   <si>
-    <t>GET /api/equipment/{{id}}/history returns entries</t>
-  </si>
-  <si>
     <t>Existing id with changes</t>
   </si>
   <si>
     <t>1. GET history</t>
-  </si>
-  <si>
-    <t>Validation: reject invalid status value</t>
-  </si>
-  <si>
-    <t>1. POST status INVALID</t>
-  </si>
-  <si>
-    <t>Not Found: history for bad id</t>
   </si>
   <si>
     <t>Bad id</t>
@@ -365,13 +347,6 @@
 </t>
   </si>
   <si>
-    <t>Modal displays the update with
-a)From Status displyed
-b)To status displayed
-c)Changed operator name displayed
-d)Updated timestam is displayed correctly</t>
-  </si>
-  <si>
     <t>History Modal Pagination</t>
   </si>
   <si>
@@ -452,15 +427,9 @@
     <t>status 200 with array with status+timestamp</t>
   </si>
   <si>
-    <t>4xx with message and no state change</t>
-  </si>
-  <si>
     <t xml:space="preserve">404/empty with message </t>
   </si>
   <si>
-    <t>EST012</t>
-  </si>
-  <si>
     <t>History Modal Empty Message</t>
   </si>
   <si>
@@ -470,46 +439,10 @@
     <t>At least one item exists with no history</t>
   </si>
   <si>
-    <t>EST013</t>
-  </si>
-  <si>
-    <t>EST014</t>
-  </si>
-  <si>
-    <t>EST015</t>
-  </si>
-  <si>
-    <t>EST016</t>
-  </si>
-  <si>
-    <t>EST017</t>
-  </si>
-  <si>
-    <t>EST018</t>
-  </si>
-  <si>
-    <t>EST019</t>
-  </si>
-  <si>
-    <t>EST020</t>
-  </si>
-  <si>
-    <t>EST021</t>
-  </si>
-  <si>
-    <t>EST022</t>
-  </si>
-  <si>
-    <t>EST023</t>
-  </si>
-  <si>
     <t>Active Count is not correct</t>
   </si>
   <si>
     <t>Refresh Button refreshes the page</t>
-  </si>
-  <si>
-    <t>EST024</t>
   </si>
   <si>
     <t>1. Navigate to 'https://qa-assignment-omega.vercel.app'
@@ -562,17 +495,344 @@
     <t>status 201, entity present</t>
   </si>
   <si>
-    <t>Majorly Pass, Fails very rarely</t>
-  </si>
-  <si>
     <t>ID-010</t>
+  </si>
+  <si>
+    <t>UI_001</t>
+  </si>
+  <si>
+    <t>UI_002</t>
+  </si>
+  <si>
+    <t>UI_003</t>
+  </si>
+  <si>
+    <t>UI_004</t>
+  </si>
+  <si>
+    <t>Modal displays the update with
+a)From Status displayed
+b)To status displayed
+c)Changed operator name displayed
+d)Updated timestamp is displayed correctly</t>
+  </si>
+  <si>
+    <t>API_013</t>
+  </si>
+  <si>
+    <t>API_001</t>
+  </si>
+  <si>
+    <t>API_002</t>
+  </si>
+  <si>
+    <t>API_003</t>
+  </si>
+  <si>
+    <t>API_004</t>
+  </si>
+  <si>
+    <t>API_017</t>
+  </si>
+  <si>
+    <t>PERF_001</t>
+  </si>
+  <si>
+    <t>UI_005</t>
+  </si>
+  <si>
+    <t>API_015
+API_016</t>
+  </si>
+  <si>
+    <t>API_005,
+API_006</t>
+  </si>
+  <si>
+    <t>API001 Get all equipments and validate the keys</t>
+  </si>
+  <si>
+    <t>API002 POST Creates a new equipment in random status</t>
+  </si>
+  <si>
+    <t>API003 POST Updates status of equipment</t>
+  </si>
+  <si>
+    <t>API004 GET equipment history</t>
+  </si>
+  <si>
+    <t>API005 GET equipment history with limit and offset</t>
+  </si>
+  <si>
+    <t>API006 GET equipment history check pagination and no duplicate entries</t>
+  </si>
+  <si>
+    <t>API007 POST without name</t>
+  </si>
+  <si>
+    <t>API_005</t>
+  </si>
+  <si>
+    <t>API_006</t>
+  </si>
+  <si>
+    <t>API_007</t>
+  </si>
+  <si>
+    <t>API_008</t>
+  </si>
+  <si>
+    <t>API_009</t>
+  </si>
+  <si>
+    <t>API_010</t>
+  </si>
+  <si>
+    <t>API_011</t>
+  </si>
+  <si>
+    <t>API008 POST without status</t>
+  </si>
+  <si>
+    <t>API009 POST without location</t>
+  </si>
+  <si>
+    <t>API010 POST with empty name</t>
+  </si>
+  <si>
+    <t>API011 POST with empty location</t>
+  </si>
+  <si>
+    <t>API012 POST with empty status</t>
+  </si>
+  <si>
+    <t>API_012</t>
+  </si>
+  <si>
+    <t>API_014</t>
+  </si>
+  <si>
+    <t>API_015</t>
+  </si>
+  <si>
+    <t>API_016</t>
+  </si>
+  <si>
+    <t>API013 POST with empty payload</t>
+  </si>
+  <si>
+    <t>API014 POST with invalid status</t>
+  </si>
+  <si>
+    <t>API015 POST with long name</t>
+  </si>
+  <si>
+    <t>API016 POST with long location</t>
+  </si>
+  <si>
+    <t>API_018</t>
+  </si>
+  <si>
+    <t>API_019</t>
+  </si>
+  <si>
+    <t>API_020</t>
+  </si>
+  <si>
+    <t>API017 POST update status with invalid equipment ID</t>
+  </si>
+  <si>
+    <t>API018 POST update status with invalid equipment ID type</t>
+  </si>
+  <si>
+    <t>API019 POST update status with invalid status</t>
+  </si>
+  <si>
+    <t>API020 POST update status with empty status</t>
+  </si>
+  <si>
+    <t>API021 POST update status without status</t>
+  </si>
+  <si>
+    <t>API_021</t>
+  </si>
+  <si>
+    <t>API022 GET equipment history with invalid id</t>
+  </si>
+  <si>
+    <t>API_022</t>
+  </si>
+  <si>
+    <t>API_023</t>
+  </si>
+  <si>
+    <t>API_024</t>
+  </si>
+  <si>
+    <t>API_025</t>
+  </si>
+  <si>
+    <t>API_026</t>
+  </si>
+  <si>
+    <t>API_027</t>
+  </si>
+  <si>
+    <t>API_028</t>
+  </si>
+  <si>
+    <t>API023 GET equipment history with invalid id type</t>
+  </si>
+  <si>
+    <t>API024 POST update status of an equipment from under maintenance</t>
+  </si>
+  <si>
+    <t>API025 GET equipment history with invalid limit</t>
+  </si>
+  <si>
+    <t>API026 GET equipment history with invalid offset</t>
+  </si>
+  <si>
+    <t>API027 GET equipment history with invalid type limit</t>
+  </si>
+  <si>
+    <t>API028 GET equipment history with invalid offset</t>
+  </si>
+  <si>
+    <t>ID- 011</t>
+  </si>
+  <si>
+    <t>No Error message from API on passing invalid type on history</t>
+  </si>
+  <si>
+    <t>No Error message from API on passing invalid id on history</t>
+  </si>
+  <si>
+    <t>ID-012</t>
+  </si>
+  <si>
+    <t>ID-013</t>
+  </si>
+  <si>
+    <t>No Error message on passing invalid limit/invalid type limit on history api</t>
+  </si>
+  <si>
+    <t>No Error message on passing invalid offset/invalid type offset on history api</t>
+  </si>
+  <si>
+    <t>Majorly Pass, Fails very rarely with error 500</t>
+  </si>
+  <si>
+    <t>EST_012</t>
+  </si>
+  <si>
+    <t>EST_013</t>
+  </si>
+  <si>
+    <t>EST_014</t>
+  </si>
+  <si>
+    <t>EST_015</t>
+  </si>
+  <si>
+    <t>EST_016</t>
+  </si>
+  <si>
+    <t>EST_017</t>
+  </si>
+  <si>
+    <t>EST_018</t>
+  </si>
+  <si>
+    <t>EST_019</t>
+  </si>
+  <si>
+    <t>EST_020</t>
+  </si>
+  <si>
+    <t>EST_021</t>
+  </si>
+  <si>
+    <t>EST_022</t>
+  </si>
+  <si>
+    <t>EST_023</t>
+  </si>
+  <si>
+    <t>EST_024</t>
+  </si>
+  <si>
+    <t>EST_025</t>
+  </si>
+  <si>
+    <t>EST_026</t>
+  </si>
+  <si>
+    <t>EST_027</t>
+  </si>
+  <si>
+    <t>EST_028</t>
+  </si>
+  <si>
+    <t>EST_029</t>
+  </si>
+  <si>
+    <t>EST_030</t>
+  </si>
+  <si>
+    <t>EST_031</t>
+  </si>
+  <si>
+    <t>EST_032</t>
+  </si>
+  <si>
+    <t>EST_033</t>
+  </si>
+  <si>
+    <t>EST_034</t>
+  </si>
+  <si>
+    <t>EST_035</t>
+  </si>
+  <si>
+    <t>EST_036</t>
+  </si>
+  <si>
+    <t>EST_037</t>
+  </si>
+  <si>
+    <t>EST_038</t>
+  </si>
+  <si>
+    <t>EST_039</t>
+  </si>
+  <si>
+    <t>EST_040</t>
+  </si>
+  <si>
+    <t>EST_041</t>
+  </si>
+  <si>
+    <t>EST_042</t>
+  </si>
+  <si>
+    <t>EST_043</t>
+  </si>
+  <si>
+    <t>EST_044</t>
+  </si>
+  <si>
+    <t>EST_045</t>
+  </si>
+  <si>
+    <t>EST_046</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -588,13 +848,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -626,7 +879,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -649,35 +902,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -685,38 +914,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,10 +1269,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80035E3B-1F1F-2642-8617-12B3D8A5FC4E}">
-  <dimension ref="A1:M25"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="174" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1076,65 +1294,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="127" x14ac:dyDescent="0.2">
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="127" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>11</v>
@@ -1142,23 +1360,25 @@
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="K2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>64</v>
+        <v>111</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="141" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="141" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1167,11 +1387,11 @@
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>11</v>
@@ -1179,36 +1399,38 @@
       <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="K3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="272" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>44</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="272" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>11</v>
@@ -1216,36 +1438,38 @@
       <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="K4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>45</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="57" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>15</v>
@@ -1253,34 +1477,34 @@
       <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="141" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>46</v>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" ht="141" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>102</v>
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>16</v>
@@ -1288,32 +1512,34 @@
       <c r="I6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="10" t="s">
+      <c r="J6" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" ht="127" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="127" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>11</v>
@@ -1321,34 +1547,36 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="113" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>48</v>
+      <c r="J7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" ht="113" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>101</v>
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>18</v>
@@ -1356,36 +1584,38 @@
       <c r="I8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="113" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>49</v>
+      <c r="J8" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="113" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
@@ -1393,36 +1623,38 @@
       <c r="I9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>141</v>
+      <c r="J9" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="113" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>50</v>
+      <c r="A10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>15</v>
@@ -1430,36 +1662,36 @@
       <c r="I10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>51</v>
+      <c r="J10" s="6"/>
+      <c r="K10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="85" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>11</v>
@@ -1467,32 +1699,34 @@
       <c r="I11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="71" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>52</v>
+      <c r="J11" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" ht="71" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>15</v>
@@ -1500,32 +1734,34 @@
       <c r="I12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" ht="43" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>117</v>
+      <c r="J12" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" ht="43" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>120</v>
+        <v>81</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>15</v>
@@ -1533,32 +1769,34 @@
       <c r="I13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" ht="155" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>121</v>
+      <c r="J13" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" ht="155" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>94</v>
+        <v>81</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>18</v>
@@ -1566,36 +1804,38 @@
       <c r="I14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="29" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>122</v>
+      <c r="J14" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>57</v>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>11</v>
@@ -1603,32 +1843,32 @@
       <c r="I15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="3"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>123</v>
+      <c r="A16" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>57</v>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>18</v>
@@ -1636,36 +1876,36 @@
       <c r="I16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>124</v>
+      <c r="J16" s="6"/>
+      <c r="K16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="85" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>57</v>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>15</v>
@@ -1673,32 +1913,32 @@
       <c r="I17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" ht="43" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>125</v>
+      <c r="J17" s="6"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" ht="43" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>57</v>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>16</v>
@@ -1706,32 +1946,32 @@
       <c r="I18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>126</v>
+      <c r="J18" s="6"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>16</v>
@@ -1739,98 +1979,104 @@
       <c r="I19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" ht="29" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>127</v>
+      <c r="J19" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" ht="43" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>128</v>
+        <v>23</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" ht="43" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>11</v>
@@ -1838,115 +2084,841 @@
       <c r="I22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="10" t="s">
-        <v>65</v>
+      <c r="L22" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>130</v>
+    <row r="23" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="K23" s="2"/>
-      <c r="L23" s="10" t="s">
-        <v>65</v>
+      <c r="L23" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>131</v>
+    <row r="24" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="1"/>
+      <c r="J24" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="102" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>134</v>
+        <v>58</v>
+      </c>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="1"/>
+      <c r="J25" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="K25" s="2"/>
-      <c r="L25" s="13" t="s">
-        <v>150</v>
+      <c r="L25" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="M25" s="2"/>
     </row>
+    <row r="26" spans="1:13" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="1:13" ht="119" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="119" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="119" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="119" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="153" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="M47" s="2"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:M47" xr:uid="{80035E3B-1F1F-2642-8617-12B3D8A5FC4E}">
+    <filterColumn colId="9">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="Fail"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
